--- a/InputData/elec/BTaDLP/BAU Trans and Distr Loss Perc.xlsx
+++ b/InputData/elec/BTaDLP/BAU Trans and Distr Loss Perc.xlsx
@@ -1,28 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BTaDLP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\elec\BTaDLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B18E8A4-4C6B-4B4C-A604-932D442712C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12075"/>
+    <workbookView xWindow="49410" yWindow="855" windowWidth="17595" windowHeight="15765" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="MER 7.1" sheetId="6" r:id="rId2"/>
     <sheet name="Calculations" sheetId="4" r:id="rId3"/>
-    <sheet name="BTaDLP" sheetId="2" r:id="rId4"/>
+    <sheet name="Texas Notes" sheetId="7" r:id="rId4"/>
+    <sheet name="BTaDLP" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="78">
   <si>
     <t>Source:</t>
   </si>
@@ -124,16 +136,177 @@
   </si>
   <si>
     <t>Trans and Dist Loss Perc (dimensionless)</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/electricity/state/texas/state_tables.php</t>
+  </si>
+  <si>
+    <t>Table 10</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Year
+2018</t>
+  </si>
+  <si>
+    <t>Year
+2017</t>
+  </si>
+  <si>
+    <t>Year
+2016</t>
+  </si>
+  <si>
+    <t>Year
+2015</t>
+  </si>
+  <si>
+    <t>Year
+2014</t>
+  </si>
+  <si>
+    <t>Year
+2013</t>
+  </si>
+  <si>
+    <t>Year
+2012</t>
+  </si>
+  <si>
+    <t>Year
+2011</t>
+  </si>
+  <si>
+    <t>Year
+2010</t>
+  </si>
+  <si>
+    <t>Year
+2009</t>
+  </si>
+  <si>
+    <t>Year
+2008</t>
+  </si>
+  <si>
+    <t>Year
+2007</t>
+  </si>
+  <si>
+    <t>Year
+2006</t>
+  </si>
+  <si>
+    <t>Year
+2005</t>
+  </si>
+  <si>
+    <t>Year
+2004</t>
+  </si>
+  <si>
+    <t>Year
+2003</t>
+  </si>
+  <si>
+    <t>Year
+2002</t>
+  </si>
+  <si>
+    <t>Year
+2001</t>
+  </si>
+  <si>
+    <t>Year
+2000</t>
+  </si>
+  <si>
+    <t>Year
+1999</t>
+  </si>
+  <si>
+    <t>Year
+1998</t>
+  </si>
+  <si>
+    <t>Year
+1997</t>
+  </si>
+  <si>
+    <t>Year
+1996</t>
+  </si>
+  <si>
+    <t>Year
+1995</t>
+  </si>
+  <si>
+    <t>Year
+1994</t>
+  </si>
+  <si>
+    <t>Year
+1993</t>
+  </si>
+  <si>
+    <t>Year
+1992</t>
+  </si>
+  <si>
+    <t>Year
+1991</t>
+  </si>
+  <si>
+    <t>Year
+1990</t>
+  </si>
+  <si>
+    <t>Electric power sector generation subtotal</t>
+  </si>
+  <si>
+    <t>Total electric industry retail sales</t>
+  </si>
+  <si>
+    <t>Estimated losses</t>
+  </si>
+  <si>
+    <t>Unaccounted</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>%losses</t>
+  </si>
+  <si>
+    <t>Two things stick out here versus the national model</t>
+  </si>
+  <si>
+    <t>1 - Texas has fewer losses. Between 5-6% since 2007, versus the US number of 6.7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Texas numbers have improved over time. </t>
+  </si>
+  <si>
+    <t>projection</t>
+  </si>
+  <si>
+    <t>It is probably unreasonable to assume a linear trend - i.e., that losses will be under 2% in 2050</t>
+  </si>
+  <si>
+    <t>We'll just use the same trend as the national data--which is flat (i.e. losses don't get any better throough 2050)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,19 +372,70 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E5F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -222,7 +446,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -244,11 +468,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -411,6 +660,1245 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.35763845144356954"/>
+                  <c:y val="-0.25136883931175269"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Texas Notes'!$B$10:$AD$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Texas Notes'!$B$11:$AD$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>5.0668929575420463E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3310338928527358E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0738420327004242E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8063728658152109E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1080204395093781E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1924398168776226E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0972696871635838E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.855845947664659E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9790188703958733E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0695323335396636E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.9948817977635301E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.913701798811942E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.1612039841869318E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.2599417536527147E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.7534482572860863E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.9806429322621918E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.1947199593110925E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.5057261773959869E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.3620250782128402E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.420500324651931E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.8376164479483137E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.2726254361357864E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.4150359651111802E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.1789993355635129E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.2477007257372231E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.5817922010063335E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.4400786217418899E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.3248337087082976E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2764508057452104E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6F95-4152-972A-B224879334FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Texas Notes'!$B$13:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Texas Notes'!$B$14:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.7749699999999784E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2615399999999859E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7481099999999934E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2346800000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7212500000000084E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2078200000000159E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.694389999999979E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6F95-4152-972A-B224879334FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>short</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Texas Notes'!$B$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Texas Notes'!$B$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0668929575420463E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3310338928527358E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0738420327004242E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8063728658152109E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1080204395093781E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1924398168776226E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0972696871635838E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6F95-4152-972A-B224879334FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="435711728"/>
+        <c:axId val="435717960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="435711728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435717960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="435717960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435711728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -428,7 +1916,54 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{164EDC70-0C55-4660-996D-00C4E7D8D358}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -522,6 +2057,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -557,6 +2109,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -732,21 +2301,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,44 +2323,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>2016</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" location="electricity"/>
+    <hyperlink ref="B6" r:id="rId1" location="electricity" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -799,48 +2368,50 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="str">
         <f>HYPERLINK("http://www.eia.gov/totalenergy/data/monthly/dataunits.cfm","Note: Information about data precision.")</f>
         <v>Note: Information about data precision.</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
@@ -878,7 +2449,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
         <v>22</v>
@@ -914,7 +2485,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="7">
         <v>1949</v>
       </c>
@@ -952,7 +2523,7 @@
         <v>254.511</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="7">
         <v>1950</v>
       </c>
@@ -990,7 +2561,7 @@
         <v>291.44299999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="7">
         <v>1951</v>
       </c>
@@ -1028,7 +2599,7 @@
         <v>330.28500000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="7">
         <v>1952</v>
       </c>
@@ -1066,7 +2637,7 @@
         <v>356.16399999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="7">
         <v>1953</v>
       </c>
@@ -1104,7 +2675,7 @@
         <v>396.21699999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="7">
         <v>1954</v>
       </c>
@@ -1142,7 +2713,7 @@
         <v>424.16399999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="7">
         <v>1955</v>
       </c>
@@ -1180,7 +2751,7 @@
         <v>496.74799999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="7">
         <v>1956</v>
       </c>
@@ -1218,7 +2789,7 @@
         <v>546.28</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="7">
         <v>1957</v>
       </c>
@@ -1256,7 +2827,7 @@
         <v>575.82000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="7">
         <v>1958</v>
       </c>
@@ -1294,7 +2865,7 @@
         <v>587.86300000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="7">
         <v>1959</v>
       </c>
@@ -1332,7 +2903,7 @@
         <v>646.88800000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="7">
         <v>1960</v>
       </c>
@@ -1370,7 +2941,7 @@
         <v>688.07500000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="7">
         <v>1961</v>
       </c>
@@ -1408,7 +2979,7 @@
         <v>721.95</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="7">
         <v>1962</v>
       </c>
@@ -1446,7 +3017,7 @@
         <v>777.6</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="7">
         <v>1963</v>
       </c>
@@ -1484,7 +3055,7 @@
         <v>832.61300000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="7">
         <v>1964</v>
       </c>
@@ -1522,7 +3093,7 @@
         <v>896.05899999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="7">
         <v>1965</v>
       </c>
@@ -1560,7 +3131,7 @@
         <v>953.78899999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="7">
         <v>1966</v>
       </c>
@@ -1598,7 +3169,7 @@
         <v>1035.145</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="7">
         <v>1967</v>
       </c>
@@ -1636,7 +3207,7 @@
         <v>1099.2170000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="7">
         <v>1968</v>
       </c>
@@ -1674,7 +3245,7 @@
         <v>1202.8710000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="7">
         <v>1969</v>
       </c>
@@ -1712,7 +3283,7 @@
         <v>1313.8330000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="7">
         <v>1970</v>
       </c>
@@ -1750,7 +3321,7 @@
         <v>1392.3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="7">
         <v>1971</v>
       </c>
@@ -1788,7 +3359,7 @@
         <v>1469.54</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="7">
         <v>1972</v>
       </c>
@@ -1826,7 +3397,7 @@
         <v>1595.1610000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="7">
         <v>1973</v>
       </c>
@@ -1864,7 +3435,7 @@
         <v>1712.9090000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="7">
         <v>1974</v>
       </c>
@@ -1902,7 +3473,7 @@
         <v>1705.924</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="7">
         <v>1975</v>
       </c>
@@ -1940,7 +3511,7 @@
         <v>1747.0909999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="7">
         <v>1976</v>
       </c>
@@ -1978,7 +3549,7 @@
         <v>1855.2460000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="7">
         <v>1977</v>
       </c>
@@ -2016,7 +3587,7 @@
         <v>1948.3610000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="7">
         <v>1978</v>
       </c>
@@ -2054,7 +3625,7 @@
         <v>2017.922</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="7">
         <v>1979</v>
       </c>
@@ -2092,7 +3663,7 @@
         <v>2071.0990000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="7">
         <v>1980</v>
       </c>
@@ -2130,7 +3701,7 @@
         <v>2094.4490000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="7">
         <v>1981</v>
       </c>
@@ -2168,7 +3739,7 @@
         <v>2147.1030000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="7">
         <v>1982</v>
       </c>
@@ -2206,7 +3777,7 @@
         <v>2086.4409999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="7">
         <v>1983</v>
       </c>
@@ -2244,7 +3815,7 @@
         <v>2150.9549999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="7">
         <v>1984</v>
       </c>
@@ -2282,7 +3853,7 @@
         <v>2285.7959999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="7">
         <v>1985</v>
       </c>
@@ -2320,7 +3891,7 @@
         <v>2323.9740000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="7">
         <v>1986</v>
       </c>
@@ -2358,7 +3929,7 @@
         <v>2368.7530000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="7">
         <v>1987</v>
       </c>
@@ -2396,7 +3967,7 @@
         <v>2457.2719999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="7">
         <v>1988</v>
       </c>
@@ -2434,7 +4005,7 @@
         <v>2578.0619999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="7">
         <v>1989</v>
       </c>
@@ -2472,7 +4043,7 @@
         <v>2755.6350000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="7">
         <v>1990</v>
       </c>
@@ -2510,7 +4081,7 @@
         <v>2837.0839999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="7">
         <v>1991</v>
       </c>
@@ -2548,7 +4119,7 @@
         <v>2886.06</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="7">
         <v>1992</v>
       </c>
@@ -2586,7 +4157,7 @@
         <v>2897.2069999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="7">
         <v>1993</v>
       </c>
@@ -2624,7 +4195,7 @@
         <v>3000.7</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="7">
         <v>1994</v>
       </c>
@@ -2662,7 +4233,7 @@
         <v>3080.8879999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="7">
         <v>1995</v>
       </c>
@@ -2700,7 +4271,7 @@
         <v>3163.9630000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" s="7">
         <v>1996</v>
       </c>
@@ -2738,7 +4309,7 @@
         <v>3253.7649999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" s="7">
         <v>1997</v>
       </c>
@@ -2776,7 +4347,7 @@
         <v>3301.8490000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" s="7">
         <v>1998</v>
       </c>
@@ -2814,7 +4385,7 @@
         <v>3425.0970000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" s="7">
         <v>1999</v>
       </c>
@@ -2852,7 +4423,7 @@
         <v>3483.7159999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" s="7">
         <v>2000</v>
       </c>
@@ -2890,7 +4461,7 @@
         <v>3592.357</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" s="7">
         <v>2001</v>
       </c>
@@ -2928,7 +4499,7 @@
         <v>3557.107</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" s="7">
         <v>2002</v>
       </c>
@@ -2966,7 +4537,7 @@
         <v>3631.65</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67" s="7">
         <v>2003</v>
       </c>
@@ -3004,7 +4575,7 @@
         <v>3662.029</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" s="7">
         <v>2004</v>
       </c>
@@ -3042,7 +4613,7 @@
         <v>3715.9490000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69" s="7">
         <v>2005</v>
       </c>
@@ -3080,7 +4651,7 @@
         <v>3810.9839999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70" s="7">
         <v>2006</v>
       </c>
@@ -3118,7 +4689,7 @@
         <v>3816.8449999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71" s="7">
         <v>2007</v>
       </c>
@@ -3156,7 +4727,7 @@
         <v>3890.2310000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" s="7">
         <v>2008</v>
       </c>
@@ -3194,7 +4765,7 @@
         <v>3866.1610000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73" s="7">
         <v>2009</v>
       </c>
@@ -3232,7 +4803,7 @@
         <v>3723.7330000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" s="7">
         <v>2010</v>
       </c>
@@ -3270,7 +4841,7 @@
         <v>3886.752</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75" s="7">
         <v>2011</v>
       </c>
@@ -3308,7 +4879,7 @@
         <v>3882.6</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76" s="7">
         <v>2012</v>
       </c>
@@ -3346,7 +4917,7 @@
         <v>3832.306</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77" s="7">
         <v>2013</v>
       </c>
@@ -3384,7 +4955,7 @@
         <v>3868.33</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78" s="7">
         <v>2014</v>
       </c>
@@ -3422,7 +4993,7 @@
         <v>3903.2739999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79" s="7">
         <v>2015</v>
       </c>
@@ -3467,20 +5038,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.265625" customWidth="1"/>
+    <col min="4" max="4" width="9.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3491,7 +5064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2000</v>
       </c>
@@ -3508,7 +5081,7 @@
         <v>6.6944071098814603E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2001</v>
       </c>
@@ -3525,7 +5098,7 @@
         <v>5.6301959775455837E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2002</v>
       </c>
@@ -3542,7 +5115,7 @@
         <v>6.69968403047973E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2003</v>
       </c>
@@ -3559,7 +5132,7 @@
         <v>6.1157289973365822E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2004</v>
       </c>
@@ -3576,7 +5149,7 @@
         <v>6.9824806478379145E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2005</v>
       </c>
@@ -3593,7 +5166,7 @@
         <v>6.8991223394440859E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2006</v>
       </c>
@@ -3610,7 +5183,7 @@
         <v>6.8135044422103247E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2007</v>
       </c>
@@ -3627,7 +5200,7 @@
         <v>7.4342197409809851E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2008</v>
       </c>
@@ -3644,7 +5217,7 @@
         <v>7.1973548372324628E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2009</v>
       </c>
@@ -3661,7 +5234,7 @@
         <v>6.8415000431776993E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2010</v>
       </c>
@@ -3678,7 +5251,7 @@
         <v>6.6530543607796436E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2011</v>
       </c>
@@ -3695,7 +5268,7 @@
         <v>6.4533940396931652E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2012</v>
       </c>
@@ -3712,7 +5285,7 @@
         <v>6.7531060123515632E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2013</v>
       </c>
@@ -3729,7 +5302,7 @@
         <v>6.5453036402503759E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2014</v>
       </c>
@@ -3746,7 +5319,7 @@
         <v>6.18602525829927E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2015</v>
       </c>
@@ -3763,12 +5336,12 @@
         <v>7.3923968962333539E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -3787,23 +5360,854 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97F9CBF-B5D6-4E97-84A1-BE76069BA22F}">
+  <dimension ref="A1:AD32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="35.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="59" customWidth="1"/>
+    <col min="2" max="30" width="13.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" s="16" customFormat="1" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB4" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD4" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="18">
+        <v>432030382</v>
+      </c>
+      <c r="C5" s="18">
+        <v>410082949</v>
+      </c>
+      <c r="D5" s="18">
+        <v>410075656</v>
+      </c>
+      <c r="E5" s="18">
+        <v>407109780</v>
+      </c>
+      <c r="F5" s="18">
+        <v>397220102</v>
+      </c>
+      <c r="G5" s="18">
+        <v>391914528</v>
+      </c>
+      <c r="H5" s="18">
+        <v>387890679</v>
+      </c>
+      <c r="I5" s="18">
+        <v>396841553</v>
+      </c>
+      <c r="J5" s="18">
+        <v>370373576</v>
+      </c>
+      <c r="K5" s="18">
+        <v>362205534</v>
+      </c>
+      <c r="L5" s="18">
+        <v>369581332</v>
+      </c>
+      <c r="M5" s="18">
+        <v>367988829</v>
+      </c>
+      <c r="N5" s="18">
+        <v>360673840</v>
+      </c>
+      <c r="O5" s="18">
+        <v>356878688</v>
+      </c>
+      <c r="P5" s="18">
+        <v>347872244</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>339427546</v>
+      </c>
+      <c r="R5" s="18">
+        <v>345226279</v>
+      </c>
+      <c r="S5" s="18">
+        <v>331409572</v>
+      </c>
+      <c r="T5" s="18">
+        <v>336259368</v>
+      </c>
+      <c r="U5" s="18">
+        <v>319120234</v>
+      </c>
+      <c r="V5" s="18">
+        <v>316877309</v>
+      </c>
+      <c r="W5" s="18">
+        <v>297231972</v>
+      </c>
+      <c r="X5" s="18">
+        <v>291485127</v>
+      </c>
+      <c r="Y5" s="18">
+        <v>279910877</v>
+      </c>
+      <c r="Z5" s="18">
+        <v>270609518</v>
+      </c>
+      <c r="AA5" s="18">
+        <v>263989931</v>
+      </c>
+      <c r="AB5" s="18">
+        <v>254404946</v>
+      </c>
+      <c r="AC5" s="18">
+        <v>251956068</v>
+      </c>
+      <c r="AD5" s="18">
+        <v>247713418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="18">
+        <v>424418628</v>
+      </c>
+      <c r="C6" s="18">
+        <v>401880374</v>
+      </c>
+      <c r="D6" s="18">
+        <v>398661809</v>
+      </c>
+      <c r="E6" s="18">
+        <v>392337354</v>
+      </c>
+      <c r="F6" s="18">
+        <v>389669820</v>
+      </c>
+      <c r="G6" s="18">
+        <v>378817254</v>
+      </c>
+      <c r="H6" s="18">
+        <v>365104131</v>
+      </c>
+      <c r="I6" s="18">
+        <v>376065116</v>
+      </c>
+      <c r="J6" s="18">
+        <v>358457550</v>
+      </c>
+      <c r="K6" s="18">
+        <v>345351420</v>
+      </c>
+      <c r="L6" s="18">
+        <v>347814647</v>
+      </c>
+      <c r="M6" s="18">
+        <v>343828582</v>
+      </c>
+      <c r="N6" s="18">
+        <v>342724213</v>
+      </c>
+      <c r="O6" s="18">
+        <v>334258262</v>
+      </c>
+      <c r="P6" s="18">
+        <v>320614840</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>322685955</v>
+      </c>
+      <c r="R6" s="18">
+        <v>331131686</v>
+      </c>
+      <c r="S6" s="18">
+        <v>318076656</v>
+      </c>
+      <c r="T6" s="18">
+        <v>318262529</v>
+      </c>
+      <c r="U6" s="18">
+        <v>301844180</v>
+      </c>
+      <c r="V6" s="18">
+        <v>304704764</v>
+      </c>
+      <c r="W6" s="18">
+        <v>286703509</v>
+      </c>
+      <c r="X6" s="18">
+        <v>278449583</v>
+      </c>
+      <c r="Y6" s="18">
+        <v>263278592</v>
+      </c>
+      <c r="Z6" s="18">
+        <v>258179737</v>
+      </c>
+      <c r="AA6" s="18">
+        <v>250084413</v>
+      </c>
+      <c r="AB6" s="18">
+        <v>239431038</v>
+      </c>
+      <c r="AC6" s="18">
+        <v>240351787</v>
+      </c>
+      <c r="AD6" s="18">
+        <v>237415127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="18">
+        <v>21890517</v>
+      </c>
+      <c r="C7" s="18">
+        <v>21861661</v>
+      </c>
+      <c r="D7" s="18">
+        <v>20806591</v>
+      </c>
+      <c r="E7" s="18">
+        <v>19567214</v>
+      </c>
+      <c r="F7" s="18">
+        <v>20290084</v>
+      </c>
+      <c r="G7" s="18">
+        <v>20349926</v>
+      </c>
+      <c r="H7" s="18">
+        <v>19771834</v>
+      </c>
+      <c r="I7" s="18">
+        <v>23238430</v>
+      </c>
+      <c r="J7" s="18">
+        <v>22144706</v>
+      </c>
+      <c r="K7" s="18">
+        <v>21984182</v>
+      </c>
+      <c r="L7" s="18">
+        <v>22155964</v>
+      </c>
+      <c r="M7" s="18">
+        <v>21761762</v>
+      </c>
+      <c r="N7" s="18">
+        <v>22221851</v>
+      </c>
+      <c r="O7" s="18">
+        <v>22340398</v>
+      </c>
+      <c r="P7" s="18">
+        <v>23493372</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>23694225</v>
+      </c>
+      <c r="R7" s="18">
+        <v>24838064</v>
+      </c>
+      <c r="S7" s="18">
+        <v>24874695</v>
+      </c>
+      <c r="T7" s="18">
+        <v>24755499</v>
+      </c>
+      <c r="U7" s="18">
+        <v>23680318</v>
+      </c>
+      <c r="V7" s="18">
+        <v>21666855</v>
+      </c>
+      <c r="W7" s="18">
+        <v>21616568</v>
+      </c>
+      <c r="X7" s="18">
+        <v>21613727</v>
+      </c>
+      <c r="Y7" s="18">
+        <v>20094800</v>
+      </c>
+      <c r="Z7" s="18">
+        <v>19612968</v>
+      </c>
+      <c r="AA7" s="18">
+        <v>20015168</v>
+      </c>
+      <c r="AB7" s="18">
+        <v>18927928</v>
+      </c>
+      <c r="AC7" s="18">
+        <v>18455363</v>
+      </c>
+      <c r="AD7" s="18">
+        <v>18024745</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="18">
+        <v>2331928</v>
+      </c>
+      <c r="C8" s="18">
+        <v>2673643</v>
+      </c>
+      <c r="D8" s="18">
+        <v>4188172</v>
+      </c>
+      <c r="E8" s="18">
+        <v>6002972</v>
+      </c>
+      <c r="F8" s="18">
+        <v>5042672</v>
+      </c>
+      <c r="G8" s="18">
+        <v>5714560</v>
+      </c>
+      <c r="H8" s="18">
+        <v>6243412</v>
+      </c>
+      <c r="I8" s="18">
+        <v>2382394</v>
+      </c>
+      <c r="J8" s="18">
+        <v>3145380</v>
+      </c>
+      <c r="K8" s="18">
+        <v>3113157</v>
+      </c>
+      <c r="L8" s="18">
+        <v>4542218</v>
+      </c>
+      <c r="M8" s="18">
+        <v>5479814</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="R8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="S8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="U8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="V8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="W8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="X8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD8" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="B10" s="20">
+        <v>2018</v>
+      </c>
+      <c r="C10" s="20">
+        <v>2017</v>
+      </c>
+      <c r="D10" s="20">
+        <v>2016</v>
+      </c>
+      <c r="E10" s="20">
+        <v>2015</v>
+      </c>
+      <c r="F10" s="20">
+        <v>2014</v>
+      </c>
+      <c r="G10" s="20">
+        <v>2013</v>
+      </c>
+      <c r="H10" s="20">
+        <v>2012</v>
+      </c>
+      <c r="I10" s="20">
+        <v>2011</v>
+      </c>
+      <c r="J10" s="20">
+        <v>2010</v>
+      </c>
+      <c r="K10" s="20">
+        <v>2009</v>
+      </c>
+      <c r="L10" s="20">
+        <v>2008</v>
+      </c>
+      <c r="M10" s="20">
+        <v>2007</v>
+      </c>
+      <c r="N10" s="20">
+        <v>2006</v>
+      </c>
+      <c r="O10" s="20">
+        <v>2005</v>
+      </c>
+      <c r="P10" s="20">
+        <v>2004</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>2003</v>
+      </c>
+      <c r="R10" s="20">
+        <v>2002</v>
+      </c>
+      <c r="S10" s="20">
+        <v>2001</v>
+      </c>
+      <c r="T10" s="20">
+        <v>2000</v>
+      </c>
+      <c r="U10" s="20">
+        <v>1999</v>
+      </c>
+      <c r="V10" s="20">
+        <v>1998</v>
+      </c>
+      <c r="W10" s="20">
+        <v>1997</v>
+      </c>
+      <c r="X10" s="20">
+        <v>1996</v>
+      </c>
+      <c r="Y10" s="20">
+        <v>1995</v>
+      </c>
+      <c r="Z10" s="20">
+        <v>1994</v>
+      </c>
+      <c r="AA10" s="20">
+        <v>1993</v>
+      </c>
+      <c r="AB10" s="20">
+        <v>1992</v>
+      </c>
+      <c r="AC10" s="20">
+        <v>1991</v>
+      </c>
+      <c r="AD10" s="20">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A11" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11">
+        <f>B7/B5</f>
+        <v>5.0668929575420463E-2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:AD11" si="0">C7/C5</f>
+        <v>5.3310338928527358E-2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>5.0738420327004242E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>4.8063728658152109E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>5.1080204395093781E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>5.1924398168776226E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>5.0972696871635838E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>5.855845947664659E-2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>5.9790188703958733E-2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>6.0695323335396636E-2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>5.9948817977635301E-2</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>5.913701798811942E-2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>6.1612039841869318E-2</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>6.2599417536527147E-2</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>6.7534482572860863E-2</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>6.9806429322621918E-2</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>7.1947199593110925E-2</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>7.5057261773959869E-2</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>7.3620250782128402E-2</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>7.420500324651931E-2</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>6.8376164479483137E-2</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="0"/>
+        <v>7.2726254361357864E-2</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="0"/>
+        <v>7.4150359651111802E-2</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="0"/>
+        <v>7.1789993355635129E-2</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="0"/>
+        <v>7.2477007257372231E-2</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="0"/>
+        <v>7.5817922010063335E-2</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="0"/>
+        <v>7.4400786217418899E-2</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="0"/>
+        <v>7.3248337087082976E-2</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="0"/>
+        <v>7.2764508057452104E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>2020</v>
+      </c>
+      <c r="C13">
+        <v>2025</v>
+      </c>
+      <c r="D13">
+        <v>2030</v>
+      </c>
+      <c r="E13">
+        <v>2035</v>
+      </c>
+      <c r="F13">
+        <v>2040</v>
+      </c>
+      <c r="G13">
+        <v>2045</v>
+      </c>
+      <c r="H13">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14">
+        <f>2.1220069-0.00102686*B13</f>
+        <v>4.7749699999999784E-2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:H14" si="1">2.1220069-0.00102686*C13</f>
+        <v>4.2615399999999859E-2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>3.7481099999999934E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>3.2346800000000009E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>2.7212500000000084E-2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>2.2078200000000159E-2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>1.694389999999979E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B31">
+        <v>2015</v>
+      </c>
+      <c r="C31">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B32" s="4">
+        <f>B11</f>
+        <v>5.0668929575420463E-2</v>
+      </c>
+      <c r="C32" s="4">
+        <f>B32</f>
+        <v>5.0668929575420463E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.3984375" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -3916,153 +6320,152 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="4">
-        <f>Calculations!D21</f>
-        <v>6.7057173983583865E-2</v>
+        <f>'Texas Notes'!B11</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="C2" s="4">
-        <f>$B2</f>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="C2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!C1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" ref="D2:AK2" si="0">$B2</f>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="D2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!D1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="E2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="E2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!E1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="F2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="F2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!F1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="G2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!G1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="H2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="H2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!H1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="I2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="I2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!I1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="J2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="J2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!J1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="K2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="K2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!K1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="L2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="L2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!L1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="M2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="M2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!M1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="N2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="N2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!N1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="O2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="O2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!O1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="P2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="P2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!P1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="Q2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="Q2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!Q1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="R2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="R2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!R1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="S2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="S2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!S1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="T2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="T2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!T1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="U2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="U2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!U1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="V2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="V2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!V1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="W2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="W2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!W1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="X2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="X2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!X1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="Y2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="Y2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!Y1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="Z2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="Z2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!Z1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="AA2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="AA2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!AA1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="AB2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="AB2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!AB1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="AC2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="AC2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!AC1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="AD2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="AD2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!AD1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="AE2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="AE2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!AE1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="AF2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="AF2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!AF1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="AG2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="AG2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!AG1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="AH2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="AH2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!AH1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="AI2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="AI2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!AI1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="AJ2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <f t="array" ref="AJ2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!AJ1)</f>
+        <v>5.0668929575420463E-2</v>
       </c>
       <c r="AK2" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/BTaDLP/BAU Trans and Distr Loss Perc.xlsx
+++ b/InputData/elec/BTaDLP/BAU Trans and Distr Loss Perc.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\elec\BTaDLP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-texas\InputData\elec\BTaDLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B18E8A4-4C6B-4B4C-A604-932D442712C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49410" yWindow="855" windowWidth="17595" windowHeight="15765" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49410" yWindow="855" windowWidth="17595" windowHeight="15765"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="MER 7.1" sheetId="6" r:id="rId2"/>
     <sheet name="Calculations" sheetId="4" r:id="rId3"/>
     <sheet name="Texas Notes" sheetId="7" r:id="rId4"/>
-    <sheet name="BTaDLP" sheetId="2" r:id="rId5"/>
+    <sheet name="WISdom results" sheetId="8" r:id="rId5"/>
+    <sheet name="BTaDLP" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="79">
   <si>
     <t>Source:</t>
   </si>
@@ -297,12 +297,15 @@
   </si>
   <si>
     <t>We'll just use the same trend as the national data--which is flat (i.e. losses don't get any better throough 2050)</t>
+  </si>
+  <si>
+    <t>Average transmission losses across all TX regions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -446,7 +449,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -493,11 +496,14 @@
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -675,6 +681,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1301,6 +1308,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1308,7 +1316,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2057,23 +2064,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2109,23 +2099,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2301,10 +2274,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -2360,7 +2333,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" location="electricity" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId1" location="electricity"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -2368,7 +2341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5038,7 +5011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5360,10 +5333,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97F9CBF-B5D6-4E97-84A1-BE76069BA22F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -6191,14 +6164,40 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="25.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1">
+        <v>0.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2:AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6325,147 +6324,148 @@
         <v>33</v>
       </c>
       <c r="B2" s="4">
-        <f>'Texas Notes'!B11</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="C2" s="4">
-        <f t="array" ref="C2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!C1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="D2" s="4">
-        <f t="array" ref="D2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!D1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="E2" s="4">
-        <f t="array" ref="E2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!E1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="F2" s="4">
-        <f t="array" ref="F2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!F1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="G2" s="4">
-        <f t="array" ref="G2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!G1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="H2" s="4">
-        <f t="array" ref="H2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!H1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="I2" s="4">
-        <f t="array" ref="I2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!I1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="J2" s="4">
-        <f t="array" ref="J2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!J1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="K2" s="4">
-        <f t="array" ref="K2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!K1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="L2" s="4">
-        <f t="array" ref="L2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!L1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="M2" s="4">
-        <f t="array" ref="M2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!M1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="N2" s="4">
-        <f t="array" ref="N2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!N1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="O2" s="4">
-        <f t="array" ref="O2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!O1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="P2" s="4">
-        <f t="array" ref="P2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!P1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="Q2" s="4">
-        <f t="array" ref="Q2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!Q1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="R2" s="4">
-        <f t="array" ref="R2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!R1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="S2" s="4">
-        <f t="array" ref="S2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!S1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="T2" s="4">
-        <f t="array" ref="T2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!T1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="U2" s="4">
-        <f t="array" ref="U2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!U1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="V2" s="4">
-        <f t="array" ref="V2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!V1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="W2" s="4">
-        <f t="array" ref="W2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!W1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="X2" s="4">
-        <f t="array" ref="X2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!X1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="Y2" s="4">
-        <f t="array" ref="Y2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!Y1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="Z2" s="4">
-        <f t="array" ref="Z2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!Z1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="AA2" s="4">
-        <f t="array" ref="AA2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!AA1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="AB2" s="4">
-        <f t="array" ref="AB2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!AB1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="AC2" s="4">
-        <f t="array" ref="AC2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!AC1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="AD2" s="4">
-        <f t="array" ref="AD2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!AD1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="AE2" s="4">
-        <f t="array" ref="AE2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!AE1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="AF2" s="4">
-        <f t="array" ref="AF2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!AF1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="AG2" s="4">
-        <f t="array" ref="AG2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!AG1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="AH2" s="4">
-        <f t="array" ref="AH2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!AH1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="AI2" s="4">
-        <f t="array" ref="AI2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!AI1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="AJ2" s="4">
-        <f t="array" ref="AJ2">TREND('Texas Notes'!$B$32:$C$32,'Texas Notes'!$B$31:$C$31,BTaDLP!AJ1)</f>
-        <v>5.0668929575420463E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
       <c r="AK2" s="4">
-        <v>5.0999999999999997E-2</v>
+        <f>'WISdom results'!$B$1</f>
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
